--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131041815</v>
+        <v>131039759</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>479077</v>
+        <v>479059</v>
       </c>
       <c r="R2" t="n">
-        <v>6791829</v>
+        <v>6792254</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -761,11 +761,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131039759</v>
+        <v>131041815</v>
       </c>
       <c r="B3" t="n">
-        <v>91825</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,34 +798,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>479059</v>
+        <v>479077</v>
       </c>
       <c r="R3" t="n">
-        <v>6792254</v>
+        <v>6791829</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,6 +868,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,7 +902,7 @@
         <v>131041641</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>131040375</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>131042212</v>
       </c>
       <c r="B6" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>131038653</v>
       </c>
       <c r="B7" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>131042226</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>131039523</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>131040374</v>
       </c>
       <c r="B10" t="n">
-        <v>78997</v>
+        <v>79001</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>131041972</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>131040483</v>
       </c>
       <c r="B12" t="n">
-        <v>78642</v>
+        <v>78646</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>131039119</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>131038917</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>131039391</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>131040880</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>131041965</v>
       </c>
       <c r="B18" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>131039828</v>
       </c>
       <c r="B19" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>131039579</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>131040448</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>131039488</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>131040704</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>131038772</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>131038654</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>131039672</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>131039763</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -2442,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131041965</v>
+        <v>131039579</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2453,42 +2453,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>479096</v>
+        <v>479079</v>
       </c>
       <c r="R18" t="n">
-        <v>6792085</v>
+        <v>6792475</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2528,6 +2523,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131039828</v>
+        <v>131041965</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2585,19 +2585,19 @@
       <c r="I19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>bobygge</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>479059</v>
+        <v>479096</v>
       </c>
       <c r="R19" t="n">
-        <v>6792254</v>
+        <v>6792085</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131039579</v>
+        <v>131039828</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2677,37 +2677,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>bobygge</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>479079</v>
+        <v>479059</v>
       </c>
       <c r="R20" t="n">
-        <v>6792475</v>
+        <v>6792254</v>
       </c>
       <c r="S20" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2749,16 +2754,11 @@
           <t>12:08</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="b">
         <v>0</v>

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131039759</v>
+        <v>131041815</v>
       </c>
       <c r="B2" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>479059</v>
+        <v>479077</v>
       </c>
       <c r="R2" t="n">
-        <v>6792254</v>
+        <v>6791829</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -761,6 +761,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131041815</v>
+        <v>131041641</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,13 +827,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>479077</v>
+        <v>479078</v>
       </c>
       <c r="R3" t="n">
-        <v>6791829</v>
+        <v>6791615</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -872,7 +877,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
+          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131041641</v>
+        <v>131039759</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,37 +915,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>479078</v>
+        <v>479059</v>
       </c>
       <c r="R4" t="n">
-        <v>6791615</v>
+        <v>6792254</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -980,11 +985,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1454,10 +1454,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131039523</v>
+        <v>131040374</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1465,21 +1465,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>479079</v>
+        <v>479088</v>
       </c>
       <c r="R9" t="n">
-        <v>6792517</v>
+        <v>6792211</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131040374</v>
+        <v>131039523</v>
       </c>
       <c r="B10" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,21 +1572,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>479088</v>
+        <v>479079</v>
       </c>
       <c r="R10" t="n">
-        <v>6792211</v>
+        <v>6792517</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131039579</v>
+        <v>131041965</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2453,37 +2453,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>479079</v>
+        <v>479096</v>
       </c>
       <c r="R18" t="n">
-        <v>6792475</v>
+        <v>6792085</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2523,11 +2528,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131041965</v>
+        <v>131039828</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2585,19 +2585,19 @@
       <c r="I19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>bobygge</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>479096</v>
+        <v>479059</v>
       </c>
       <c r="R19" t="n">
-        <v>6792085</v>
+        <v>6792254</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131039828</v>
+        <v>131039579</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2677,42 +2677,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>bobygge</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>479059</v>
+        <v>479079</v>
       </c>
       <c r="R20" t="n">
-        <v>6792254</v>
+        <v>6792475</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2754,11 +2749,16 @@
           <t>12:08</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="b">
         <v>0</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131039672</v>
+        <v>131039763</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3368,13 +3368,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>479066</v>
+        <v>479059</v>
       </c>
       <c r="R26" t="n">
-        <v>6792326</v>
+        <v>6792254</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3414,11 +3414,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3445,7 +3440,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131039763</v>
+        <v>131039672</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3480,13 +3475,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>479059</v>
+        <v>479066</v>
       </c>
       <c r="R27" t="n">
-        <v>6792254</v>
+        <v>6792326</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3526,6 +3521,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -1454,10 +1454,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131040374</v>
+        <v>131039523</v>
       </c>
       <c r="B9" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1465,21 +1465,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>479088</v>
+        <v>479079</v>
       </c>
       <c r="R9" t="n">
-        <v>6792211</v>
+        <v>6792517</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131039523</v>
+        <v>131040374</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,21 +1572,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>479079</v>
+        <v>479088</v>
       </c>
       <c r="R10" t="n">
-        <v>6792517</v>
+        <v>6792211</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131041965</v>
+        <v>131039579</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2453,42 +2453,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>479096</v>
+        <v>479079</v>
       </c>
       <c r="R18" t="n">
-        <v>6792085</v>
+        <v>6792475</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2528,6 +2523,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131039828</v>
+        <v>131041965</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2585,19 +2585,19 @@
       <c r="I19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>bobygge</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>479059</v>
+        <v>479096</v>
       </c>
       <c r="R19" t="n">
-        <v>6792254</v>
+        <v>6792085</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131039579</v>
+        <v>131039828</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2677,37 +2677,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>bobygge</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>479079</v>
+        <v>479059</v>
       </c>
       <c r="R20" t="n">
-        <v>6792475</v>
+        <v>6792254</v>
       </c>
       <c r="S20" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2749,16 +2754,11 @@
           <t>12:08</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="b">
         <v>0</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131039763</v>
+        <v>131039672</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3368,13 +3368,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>479059</v>
+        <v>479066</v>
       </c>
       <c r="R26" t="n">
-        <v>6792254</v>
+        <v>6792326</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3414,6 +3414,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3440,7 +3445,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131039672</v>
+        <v>131039763</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3475,13 +3480,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>479066</v>
+        <v>479059</v>
       </c>
       <c r="R27" t="n">
-        <v>6792326</v>
+        <v>6792254</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3521,11 +3526,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131041641</v>
+        <v>131039759</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,37 +803,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>479078</v>
+        <v>479059</v>
       </c>
       <c r="R3" t="n">
-        <v>6791615</v>
+        <v>6792254</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -873,11 +873,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131039759</v>
+        <v>131041641</v>
       </c>
       <c r="B4" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,37 +910,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>479059</v>
+        <v>479078</v>
       </c>
       <c r="R4" t="n">
-        <v>6792254</v>
+        <v>6791615</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -985,6 +980,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1230,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131038653</v>
+        <v>131042226</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,42 +1241,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>479094</v>
+        <v>479114</v>
       </c>
       <c r="R7" t="n">
-        <v>6792753</v>
+        <v>6792438</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1305,7 +1300,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1315,7 +1310,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1342,10 +1342,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131042226</v>
+        <v>131038653</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1353,37 +1353,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>479114</v>
+        <v>479094</v>
       </c>
       <c r="R8" t="n">
-        <v>6792438</v>
+        <v>6792753</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1412,7 +1417,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1422,12 +1427,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1454,10 +1454,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131039523</v>
+        <v>131040374</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1465,21 +1465,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>479079</v>
+        <v>479088</v>
       </c>
       <c r="R9" t="n">
-        <v>6792517</v>
+        <v>6792211</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131040374</v>
+        <v>131039523</v>
       </c>
       <c r="B10" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,21 +1572,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>479088</v>
+        <v>479079</v>
       </c>
       <c r="R10" t="n">
-        <v>6792211</v>
+        <v>6792517</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131040483</v>
+        <v>131039119</v>
       </c>
       <c r="B12" t="n">
-        <v>78646</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1791,21 +1791,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>479088</v>
+        <v>479105</v>
       </c>
       <c r="R12" t="n">
-        <v>6792211</v>
+        <v>6792638</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131039119</v>
+        <v>131040483</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>78646</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1898,21 +1898,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>479105</v>
+        <v>479088</v>
       </c>
       <c r="R13" t="n">
-        <v>6792638</v>
+        <v>6792211</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131039579</v>
+        <v>131041965</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2453,37 +2453,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>479079</v>
+        <v>479096</v>
       </c>
       <c r="R18" t="n">
-        <v>6792475</v>
+        <v>6792085</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2523,11 +2528,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131041965</v>
+        <v>131039828</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2585,19 +2585,19 @@
       <c r="I19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>bobygge</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>479096</v>
+        <v>479059</v>
       </c>
       <c r="R19" t="n">
-        <v>6792085</v>
+        <v>6792254</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131039828</v>
+        <v>131039579</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2677,42 +2677,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>bobygge</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>479059</v>
+        <v>479079</v>
       </c>
       <c r="R20" t="n">
-        <v>6792254</v>
+        <v>6792475</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2754,11 +2749,16 @@
           <t>12:08</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="b">
         <v>0</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131039672</v>
+        <v>131039763</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3368,13 +3368,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>479066</v>
+        <v>479059</v>
       </c>
       <c r="R26" t="n">
-        <v>6792326</v>
+        <v>6792254</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3414,11 +3414,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3445,7 +3440,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131039763</v>
+        <v>131039672</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3480,13 +3475,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>479059</v>
+        <v>479066</v>
       </c>
       <c r="R27" t="n">
-        <v>6792254</v>
+        <v>6792326</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3526,6 +3521,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131041815</v>
+        <v>131041641</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>479077</v>
+        <v>479078</v>
       </c>
       <c r="R2" t="n">
-        <v>6791829</v>
+        <v>6791615</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
+          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131039759</v>
+        <v>131041815</v>
       </c>
       <c r="B3" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,34 +803,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>479059</v>
+        <v>479077</v>
       </c>
       <c r="R3" t="n">
-        <v>6792254</v>
+        <v>6791829</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,6 +873,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131041641</v>
+        <v>131039759</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,37 +915,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>479078</v>
+        <v>479059</v>
       </c>
       <c r="R4" t="n">
-        <v>6791615</v>
+        <v>6792254</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -980,11 +985,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1454,10 +1454,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131040374</v>
+        <v>131039523</v>
       </c>
       <c r="B9" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1465,21 +1465,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>479088</v>
+        <v>479079</v>
       </c>
       <c r="R9" t="n">
-        <v>6792211</v>
+        <v>6792517</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131039523</v>
+        <v>131040374</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,21 +1572,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>479079</v>
+        <v>479088</v>
       </c>
       <c r="R10" t="n">
-        <v>6792517</v>
+        <v>6792211</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131039119</v>
+        <v>131040483</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>78646</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1791,21 +1791,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>479105</v>
+        <v>479088</v>
       </c>
       <c r="R12" t="n">
-        <v>6792638</v>
+        <v>6792211</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131040483</v>
+        <v>131039119</v>
       </c>
       <c r="B13" t="n">
-        <v>78646</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1898,21 +1898,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>479088</v>
+        <v>479105</v>
       </c>
       <c r="R13" t="n">
-        <v>6792211</v>
+        <v>6792638</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131039391</v>
+        <v>131040880</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2249,17 +2249,17 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>479092</v>
+        <v>479089</v>
       </c>
       <c r="R16" t="n">
-        <v>6792603</v>
+        <v>6791921</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Miljöbilder. Rikligt till måttligt i en radie av ca 50 meter,  synfältet</t>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2330,7 +2330,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131040880</v>
+        <v>131039391</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2361,17 +2361,17 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>479089</v>
+        <v>479092</v>
       </c>
       <c r="R17" t="n">
-        <v>6791921</v>
+        <v>6792603</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
+          <t>Miljöbilder. Rikligt till måttligt i en radie av ca 50 meter,  synfältet</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2442,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131041965</v>
+        <v>131039579</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2453,42 +2453,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>479096</v>
+        <v>479079</v>
       </c>
       <c r="R18" t="n">
-        <v>6792085</v>
+        <v>6792475</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2528,6 +2523,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131039828</v>
+        <v>131041965</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2585,19 +2585,19 @@
       <c r="I19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>bobygge</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>479059</v>
+        <v>479096</v>
       </c>
       <c r="R19" t="n">
-        <v>6792254</v>
+        <v>6792085</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131039579</v>
+        <v>131039828</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2677,37 +2677,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>bobygge</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>479079</v>
+        <v>479059</v>
       </c>
       <c r="R20" t="n">
-        <v>6792475</v>
+        <v>6792254</v>
       </c>
       <c r="S20" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2749,16 +2754,11 @@
           <t>12:08</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="b">
         <v>0</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131039763</v>
+        <v>131039672</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3368,13 +3368,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>479059</v>
+        <v>479066</v>
       </c>
       <c r="R26" t="n">
-        <v>6792254</v>
+        <v>6792326</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3414,6 +3414,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3440,7 +3445,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131039672</v>
+        <v>131039763</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3475,13 +3480,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>479066</v>
+        <v>479059</v>
       </c>
       <c r="R27" t="n">
-        <v>6792326</v>
+        <v>6792254</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3521,11 +3526,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131041641</v>
+        <v>131039759</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,37 +691,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>479078</v>
+        <v>479059</v>
       </c>
       <c r="R2" t="n">
-        <v>6791615</v>
+        <v>6792254</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -761,11 +761,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -904,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131039759</v>
+        <v>131041641</v>
       </c>
       <c r="B4" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,37 +910,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>479059</v>
+        <v>479078</v>
       </c>
       <c r="R4" t="n">
-        <v>6792254</v>
+        <v>6791615</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -985,6 +980,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1230,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131042226</v>
+        <v>131038653</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,37 +1241,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>479114</v>
+        <v>479094</v>
       </c>
       <c r="R7" t="n">
-        <v>6792438</v>
+        <v>6792753</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1300,7 +1305,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1310,12 +1315,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1342,10 +1342,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131038653</v>
+        <v>131042226</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1353,42 +1353,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>479094</v>
+        <v>479114</v>
       </c>
       <c r="R8" t="n">
-        <v>6792753</v>
+        <v>6792438</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1417,7 +1412,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1427,7 +1422,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1780,45 +1780,50 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131040483</v>
+        <v>131039519</v>
       </c>
       <c r="B12" t="n">
-        <v>78646</v>
+        <v>8451</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6437</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>479088</v>
+        <v>479079</v>
       </c>
       <c r="R12" t="n">
-        <v>6792211</v>
+        <v>6792517</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1887,10 +1892,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131039119</v>
+        <v>131040483</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>78646</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1898,21 +1903,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1922,10 +1927,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>479105</v>
+        <v>479088</v>
       </c>
       <c r="R13" t="n">
-        <v>6792638</v>
+        <v>6792211</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1994,50 +1999,45 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131039519</v>
+        <v>131039119</v>
       </c>
       <c r="B14" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>479079</v>
+        <v>479105</v>
       </c>
       <c r="R14" t="n">
-        <v>6792517</v>
+        <v>6792638</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131040880</v>
+        <v>131039391</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2249,17 +2249,17 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>479089</v>
+        <v>479092</v>
       </c>
       <c r="R16" t="n">
-        <v>6791921</v>
+        <v>6792603</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
+          <t>Miljöbilder. Rikligt till måttligt i en radie av ca 50 meter,  synfältet</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2330,7 +2330,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131039391</v>
+        <v>131040880</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2361,17 +2361,17 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>479092</v>
+        <v>479089</v>
       </c>
       <c r="R17" t="n">
-        <v>6792603</v>
+        <v>6791921</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Miljöbilder. Rikligt till måttligt i en radie av ca 50 meter,  synfältet</t>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131039759</v>
+        <v>131041815</v>
       </c>
       <c r="B2" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>479059</v>
+        <v>479077</v>
       </c>
       <c r="R2" t="n">
-        <v>6792254</v>
+        <v>6791829</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -761,6 +761,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131041815</v>
+        <v>131041641</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,13 +827,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>479077</v>
+        <v>479078</v>
       </c>
       <c r="R3" t="n">
-        <v>6791829</v>
+        <v>6791615</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -872,7 +877,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
+          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131041641</v>
+        <v>131039759</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,37 +915,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>479078</v>
+        <v>479059</v>
       </c>
       <c r="R4" t="n">
-        <v>6791615</v>
+        <v>6792254</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -980,11 +985,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1230,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131038653</v>
+        <v>131042226</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,42 +1241,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>479094</v>
+        <v>479114</v>
       </c>
       <c r="R7" t="n">
-        <v>6792753</v>
+        <v>6792438</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1305,7 +1300,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1315,7 +1310,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1342,10 +1342,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131042226</v>
+        <v>131038653</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1353,37 +1353,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>479114</v>
+        <v>479094</v>
       </c>
       <c r="R8" t="n">
-        <v>6792438</v>
+        <v>6792753</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1412,7 +1417,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1422,12 +1427,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1780,50 +1780,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131039519</v>
+        <v>131039119</v>
       </c>
       <c r="B12" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>479079</v>
+        <v>479105</v>
       </c>
       <c r="R12" t="n">
-        <v>6792517</v>
+        <v>6792638</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1999,45 +1994,50 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131039119</v>
+        <v>131039519</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>479105</v>
+        <v>479079</v>
       </c>
       <c r="R14" t="n">
-        <v>6792638</v>
+        <v>6792517</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131041641</v>
+        <v>131039759</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,37 +803,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>479078</v>
+        <v>479059</v>
       </c>
       <c r="R3" t="n">
-        <v>6791615</v>
+        <v>6792254</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -873,11 +873,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131039759</v>
+        <v>131041641</v>
       </c>
       <c r="B4" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,37 +910,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>479059</v>
+        <v>479078</v>
       </c>
       <c r="R4" t="n">
-        <v>6792254</v>
+        <v>6791615</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -985,6 +980,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1454,10 +1454,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131039523</v>
+        <v>131040374</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1465,21 +1465,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>479079</v>
+        <v>479088</v>
       </c>
       <c r="R9" t="n">
-        <v>6792517</v>
+        <v>6792211</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131040374</v>
+        <v>131039523</v>
       </c>
       <c r="B10" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,21 +1572,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>479088</v>
+        <v>479079</v>
       </c>
       <c r="R10" t="n">
-        <v>6792211</v>
+        <v>6792517</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131039579</v>
+        <v>131041965</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2453,37 +2453,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>479079</v>
+        <v>479096</v>
       </c>
       <c r="R18" t="n">
-        <v>6792475</v>
+        <v>6792085</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2523,11 +2528,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131041965</v>
+        <v>131039828</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2585,19 +2585,19 @@
       <c r="I19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>bobygge</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>479096</v>
+        <v>479059</v>
       </c>
       <c r="R19" t="n">
-        <v>6792085</v>
+        <v>6792254</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131039828</v>
+        <v>131039579</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2677,42 +2677,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>bobygge</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>479059</v>
+        <v>479079</v>
       </c>
       <c r="R20" t="n">
-        <v>6792254</v>
+        <v>6792475</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2754,11 +2749,16 @@
           <t>12:08</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="b">
         <v>0</v>

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131041815</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131039759</v>
+        <v>131041641</v>
       </c>
       <c r="B3" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,37 +803,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>479059</v>
+        <v>479078</v>
       </c>
       <c r="R3" t="n">
-        <v>6792254</v>
+        <v>6791615</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -873,6 +873,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131041641</v>
+        <v>131039759</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>91830</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,37 +915,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>479078</v>
+        <v>479059</v>
       </c>
       <c r="R4" t="n">
-        <v>6791615</v>
+        <v>6792254</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -980,11 +985,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1014,7 +1014,7 @@
         <v>131040375</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>131042226</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131040374</v>
+        <v>131039523</v>
       </c>
       <c r="B9" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1465,21 +1465,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>479088</v>
+        <v>479079</v>
       </c>
       <c r="R9" t="n">
-        <v>6792211</v>
+        <v>6792517</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131039523</v>
+        <v>131040374</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79002</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,21 +1572,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>479079</v>
+        <v>479088</v>
       </c>
       <c r="R10" t="n">
-        <v>6792517</v>
+        <v>6792211</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1671,7 +1671,7 @@
         <v>131041972</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131039119</v>
+        <v>131040483</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>78647</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1791,21 +1791,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>479105</v>
+        <v>479088</v>
       </c>
       <c r="R12" t="n">
-        <v>6792638</v>
+        <v>6792211</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131040483</v>
+        <v>131039119</v>
       </c>
       <c r="B13" t="n">
-        <v>78646</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1898,21 +1898,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>479088</v>
+        <v>479105</v>
       </c>
       <c r="R13" t="n">
-        <v>6792211</v>
+        <v>6792638</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2221,7 +2221,7 @@
         <v>131039391</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>131040880</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131041965</v>
+        <v>131039579</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2453,42 +2453,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>479096</v>
+        <v>479079</v>
       </c>
       <c r="R18" t="n">
-        <v>6792085</v>
+        <v>6792475</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2528,6 +2523,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131039828</v>
+        <v>131041965</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2585,19 +2585,19 @@
       <c r="I19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>bobygge</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>479059</v>
+        <v>479096</v>
       </c>
       <c r="R19" t="n">
-        <v>6792254</v>
+        <v>6792085</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131039579</v>
+        <v>131039828</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2677,37 +2677,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>bobygge</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>479079</v>
+        <v>479059</v>
       </c>
       <c r="R20" t="n">
-        <v>6792475</v>
+        <v>6792254</v>
       </c>
       <c r="S20" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2749,16 +2754,11 @@
           <t>12:08</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="b">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>131040448</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>131039488</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>131040704</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>131038772</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>131038654</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>131039672</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>131039763</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -1230,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131042226</v>
+        <v>131038653</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,37 +1241,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>479114</v>
+        <v>479094</v>
       </c>
       <c r="R7" t="n">
-        <v>6792438</v>
+        <v>6792753</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1300,7 +1305,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1310,12 +1315,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1342,10 +1342,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131038653</v>
+        <v>131042226</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1353,42 +1353,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>479094</v>
+        <v>479114</v>
       </c>
       <c r="R8" t="n">
-        <v>6792753</v>
+        <v>6792438</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1417,7 +1412,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1427,7 +1422,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1454,10 +1454,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131039523</v>
+        <v>131040374</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1465,21 +1465,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>479079</v>
+        <v>479088</v>
       </c>
       <c r="R9" t="n">
-        <v>6792517</v>
+        <v>6792211</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131040374</v>
+        <v>131039523</v>
       </c>
       <c r="B10" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,21 +1572,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>479088</v>
+        <v>479079</v>
       </c>
       <c r="R10" t="n">
-        <v>6792211</v>
+        <v>6792517</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1780,45 +1780,50 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131040483</v>
+        <v>131039519</v>
       </c>
       <c r="B12" t="n">
-        <v>78647</v>
+        <v>8451</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6437</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>479088</v>
+        <v>479079</v>
       </c>
       <c r="R12" t="n">
-        <v>6792211</v>
+        <v>6792517</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1887,10 +1892,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131039119</v>
+        <v>131040483</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>78647</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1898,21 +1903,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1922,10 +1927,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>479105</v>
+        <v>479088</v>
       </c>
       <c r="R13" t="n">
-        <v>6792638</v>
+        <v>6792211</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1994,50 +1999,45 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131039519</v>
+        <v>131039119</v>
       </c>
       <c r="B14" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>479079</v>
+        <v>479105</v>
       </c>
       <c r="R14" t="n">
-        <v>6792517</v>
+        <v>6792638</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 62829-2025 artfynd.xlsx
+++ b/artfynd/A 62829-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131041815</v>
+        <v>131039759</v>
       </c>
       <c r="B2" t="n">
-        <v>79244</v>
+        <v>91830</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>479077</v>
+        <v>479059</v>
       </c>
       <c r="R2" t="n">
-        <v>6791829</v>
+        <v>6792254</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -761,11 +761,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131041641</v>
+        <v>131041815</v>
       </c>
       <c r="B3" t="n">
         <v>79244</v>
@@ -827,13 +822,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>479078</v>
+        <v>479077</v>
       </c>
       <c r="R3" t="n">
-        <v>6791615</v>
+        <v>6791829</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -877,7 +872,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131039759</v>
+        <v>131041641</v>
       </c>
       <c r="B4" t="n">
-        <v>91830</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,37 +910,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>479059</v>
+        <v>479078</v>
       </c>
       <c r="R4" t="n">
-        <v>6792254</v>
+        <v>6791615</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -985,6 +980,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1230,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131038653</v>
+        <v>131042226</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,42 +1241,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>479094</v>
+        <v>479114</v>
       </c>
       <c r="R7" t="n">
-        <v>6792753</v>
+        <v>6792438</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1305,7 +1300,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1315,7 +1310,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1342,10 +1342,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131042226</v>
+        <v>131038653</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1353,37 +1353,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>479114</v>
+        <v>479094</v>
       </c>
       <c r="R8" t="n">
-        <v>6792438</v>
+        <v>6792753</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1412,7 +1417,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1422,12 +1427,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter,synfältet</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1780,50 +1780,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131039519</v>
+        <v>131040483</v>
       </c>
       <c r="B12" t="n">
-        <v>8451</v>
+        <v>78647</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>6437</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>479079</v>
+        <v>479088</v>
       </c>
       <c r="R12" t="n">
-        <v>6792517</v>
+        <v>6792211</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1892,10 +1887,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131040483</v>
+        <v>131039119</v>
       </c>
       <c r="B13" t="n">
-        <v>78647</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1903,21 +1898,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1927,10 +1922,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>479088</v>
+        <v>479105</v>
       </c>
       <c r="R13" t="n">
-        <v>6792211</v>
+        <v>6792638</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1999,45 +1994,50 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131039119</v>
+        <v>131039519</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>479105</v>
+        <v>479079</v>
       </c>
       <c r="R14" t="n">
-        <v>6792638</v>
+        <v>6792517</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131039579</v>
+        <v>131041965</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2453,37 +2453,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Gotvad, Dlr</t>
+          <t>Tandbergsvasseln, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>479079</v>
+        <v>479096</v>
       </c>
       <c r="R18" t="n">
-        <v>6792475</v>
+        <v>6792085</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2523,11 +2528,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131041965</v>
+        <v>131039828</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2585,19 +2585,19 @@
       <c r="I19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>bobygge</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Tandbergsvasseln, Dlr</t>
+          <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>479096</v>
+        <v>479059</v>
       </c>
       <c r="R19" t="n">
-        <v>6792085</v>
+        <v>6792254</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131039828</v>
+        <v>131039579</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2677,42 +2677,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>bobygge</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Gotvad, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>479059</v>
+        <v>479079</v>
       </c>
       <c r="R20" t="n">
-        <v>6792254</v>
+        <v>6792475</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2754,11 +2749,16 @@
           <t>12:08</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Rikligt till måttligt i en radie av ca 50 meter, synfältet</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="b">
         <v>0</v>
